--- a/xlsx/拉布拉多寒流_intext.xlsx
+++ b/xlsx/拉布拉多寒流_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A9%E6%B8%A6</t>
   </si>
   <si>
-    <t>漩渦</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_拉布拉多寒流</t>
+    <t>漩涡</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_拉布拉多寒流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8A%AC%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>紐芬蘭島</t>
+    <t>纽芬兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%96%AF%E7%A7%91%E8%88%8D</t>
@@ -65,43 +65,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%8A%AC%E5%B3%B6%E6%B4%8B%E6%B5%81</t>
   </si>
   <si>
-    <t>巴芬島洋流</t>
+    <t>巴芬岛洋流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%A0%BC%E9%99%B5%E8%98%AD%E6%B4%8B%E6%B5%81</t>
   </si>
   <si>
-    <t>西格陵蘭洋流</t>
+    <t>西格陵兰洋流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%B5%81</t>
   </si>
   <si>
-    <t>墨西哥灣流</t>
+    <t>墨西哥湾流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8A%AC%E8%98%AD%E5%A4%A7%E6%B7%BA%E7%81%98</t>
   </si>
   <si>
-    <t>紐芬蘭大淺灘</t>
+    <t>纽芬兰大浅滩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>北卡羅萊納州</t>
+    <t>北卡罗莱纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E7%81%98%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>外灘群島</t>
+    <t>外滩群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E8%98%AD</t>
   </si>
   <si>
-    <t>格陵蘭</t>
+    <t>格陵兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B7%9D</t>
@@ -119,37 +119,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B1%88%E9%AD%9A%E8%A7%92</t>
   </si>
   <si>
-    <t>鱈魚角</t>
+    <t>鳕鱼角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E6%9C%A8%E7%B7%9A</t>
   </si>
   <si>
-    <t>林木線</t>
+    <t>林木线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>西伯利亞</t>
+    <t>西伯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E5%A3%93</t>
   </si>
   <si>
-    <t>正壓</t>
+    <t>正压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%BB%B4%E5%B0%94%E5%BE%B7%E9%B2%81%E6%99%AE</t>
@@ -161,19 +161,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%A3%9A</t>
   </si>
   <si>
-    <t>大陸棚</t>
+    <t>大陆棚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%90%8A%E6%98%8E%E8%A7%92</t>
   </si>
   <si>
-    <t>弗萊明角</t>
+    <t>弗莱明角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>衛星</t>
+    <t>卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%8B%E6%B5%81</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%A0%BC%E9%99%B5%E8%98%AD%E6%B4%8B%E6%B5%81</t>
   </si>
   <si>
-    <t>東格陵蘭洋流</t>
+    <t>东格陵兰洋流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%B4%8B%E6%B5%81</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E6%B5%81</t>
   </si>
   <si>
-    <t>環流</t>
+    <t>环流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%92%B0%E6%B5%81</t>
   </si>
   <si>
-    <t>北太平洋環流</t>
+    <t>北太平洋环流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B5%A4%E9%81%93%E6%9A%96%E6%B5%81</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E6%BD%AE</t>
   </si>
   <si>
-    <t>親潮</t>
+    <t>亲潮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%B4%8B%E6%B5%81</t>
@@ -239,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%B4%8B%E6%B5%81</t>
   </si>
   <si>
-    <t>加利福尼亞洋流</t>
+    <t>加利福尼亚洋流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%92%B0%E6%B5%81</t>
   </si>
   <si>
-    <t>南太平洋環流</t>
+    <t>南太平洋环流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%B5%A4%E9%81%93%E6%B4%8B%E6%B5%81</t>
@@ -257,25 +257,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%BE%B3%E6%B4%8B%E6%B5%81</t>
   </si>
   <si>
-    <t>東澳洋流</t>
+    <t>东澳洋流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF%E5%AF%92%E6%B5%81</t>
   </si>
   <si>
-    <t>秘魯寒流</t>
+    <t>秘鲁寒流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E7%92%B0%E6%B5%81</t>
   </si>
   <si>
-    <t>北大西洋環流</t>
+    <t>北大西洋环流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%9A%96%E6%B5%81</t>
   </si>
   <si>
-    <t>墨西哥灣暖流</t>
+    <t>墨西哥湾暖流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E6%B4%8B%E6%B5%81</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E7%92%B0%E6%B5%81</t>
   </si>
   <si>
-    <t>南大西洋環流</t>
+    <t>南大西洋环流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E6%B4%8B%E6%B5%81</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%B4%8B%E7%92%B0%E6%B5%81</t>
   </si>
   <si>
-    <t>印度洋環流</t>
+    <t>印度洋环流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8F%A4%E6%8B%89%E6%96%AF%E6%B4%8B%E6%B5%81</t>
@@ -347,37 +347,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5%E7%B9%9E%E6%A5%B5%E6%B5%81</t>
   </si>
   <si>
-    <t>南極繞極流</t>
+    <t>南极绕极流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%AD%A3%E9%A2%A8%E7%92%B0%E6%B5%81</t>
   </si>
   <si>
-    <t>印度季風環流</t>
+    <t>印度季风环流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E9%B9%BD%E7%92%B0%E6%B5%81</t>
   </si>
   <si>
-    <t>溫鹽環流</t>
+    <t>温盐环流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%87%8C%E5%A5%A7%E5%88%A9%E5%8A%9B</t>
   </si>
   <si>
-    <t>科里奧利力</t>
+    <t>科里奥利力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E7%92%B0%E6%B5%81</t>
   </si>
   <si>
-    <t>大氣環流</t>
+    <t>大气环流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%9E%83%E5%9C%BE%E5%B8%B6</t>
   </si>
   <si>
-    <t>太平洋垃圾帶</t>
+    <t>太平洋垃圾带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B8%83%E6%8B%89%E5%A4%9A%E6%B4%8B%E6%B5%81</t>
